--- a/Dummy (5).xlsx
+++ b/Dummy (5).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>exp</t>
   </si>
@@ -38,16 +38,7 @@
     <t>blah 2</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>ny</t>
+    <t>dxgjndg,k</t>
   </si>
 </sst>
 </file>
@@ -365,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,76 +378,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
